--- a/画面項目定義/add_hotel画面項目定義.xlsx
+++ b/画面項目定義/add_hotel画面項目定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF22C5E3-7E5F-48CB-8F28-AB4E6EF97AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28BDEBA-64C2-428D-966D-2679ED3639C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="14123" xr2:uid="{5771FC4D-03E8-4ACB-8E61-DC946E031E50}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{5771FC4D-03E8-4ACB-8E61-DC946E031E50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,36 +137,31 @@
     <t>「戻る」</t>
   </si>
   <si>
-    <r>
-      <t>admin_2.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に遷移する</t>
-    </r>
-  </si>
-  <si>
     <t>送信ボタン</t>
   </si>
   <si>
     <t>「送信」</t>
   </si>
   <si>
-    <t>フォームデータをサーバーにPOST送信</t>
+    <t>ホテル管理画面に遷移する</t>
+    <rPh sb="3" eb="7">
+      <t>カンリガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どのテーブルに保存するか</t>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,12 +178,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -230,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,17 +559,17 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="4" max="4" width="11.0625" customWidth="1"/>
     <col min="5" max="5" width="23.4375" customWidth="1"/>
     <col min="6" max="6" width="38.4375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.9">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -620,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="88.15">
+    <row r="3" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -640,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="88.15">
+    <row r="4" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -660,7 +649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="52.9">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -680,7 +669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="88.15">
+    <row r="6" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -700,7 +689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="52.9">
+    <row r="7" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -720,7 +709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="52.9">
+    <row r="8" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -740,7 +729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="105.75">
+    <row r="9" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -760,7 +749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="48">
+    <row r="10" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -777,12 +766,12 @@
         <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
+      <c r="A11" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="88.15">
-      <c r="A11" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>30</v>
@@ -791,7 +780,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
@@ -801,7 +790,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/画面項目定義/add_hotel画面項目定義.xlsx
+++ b/画面項目定義/add_hotel画面項目定義.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28BDEBA-64C2-428D-966D-2679ED3639C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E4A0DA-0566-43B0-982E-1B80B54629E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{5771FC4D-03E8-4ACB-8E61-DC946E031E50}"/>
   </bookViews>
@@ -150,8 +150,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>どのテーブルに保存するか</t>
-    <rPh sb="7" eb="9">
+    <t>ホテルテーブルに保存</t>
+    <rPh sb="8" eb="10">
       <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -209,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,9 +217,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -765,7 +762,7 @@
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
